--- a/Data/aearep-1872/candidatepackages.xlsx
+++ b/Data/aearep-1872/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,27 +22,15 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
-    <t>ftools</t>
-  </si>
-  <si>
-    <t>ivreg2</t>
+    <t>coefplot</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
-    <t>ranktest</t>
-  </si>
-  <si>
     <t>fs</t>
   </si>
   <si>
@@ -52,12 +40,6 @@
     <t>groups</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>estudy</t>
   </si>
   <si>
@@ -70,57 +52,45 @@
     <t>white</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>etime</t>
   </si>
   <si>
     <t>segregation</t>
   </si>
   <si>
-    <t>etime</t>
+    <t>cf2</t>
+  </si>
+  <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>dissim</t>
   </si>
   <si>
     <t>combine</t>
   </si>
   <si>
-    <t>cf2</t>
-  </si>
-  <si>
-    <t>dissim</t>
+    <t>effects</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>usd</t>
   </si>
   <si>
     <t>ksi</t>
   </si>
   <si>
-    <t>usd</t>
-  </si>
-  <si>
     <t>sto</t>
   </si>
   <si>
@@ -136,31 +106,16 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1872</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1872/131961/replication</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1872/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>Analysis_SegEffectofCharters_pub.do</t>
   </si>
   <si>
     <t>Simulation_SegIndex_NumSchools_pub.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -204,7 +159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -212,13 +167,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -238,7 +193,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -250,7 +205,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -262,7 +217,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -274,7 +229,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -286,7 +241,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -298,7 +253,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -310,7 +265,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -322,10 +277,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.12991735339164734</v>
       </c>
       <c r="D10"/>
     </row>
@@ -334,10 +289,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>644</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2128925621509552</v>
       </c>
       <c r="D11"/>
     </row>
@@ -346,10 +301,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>712</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D12"/>
     </row>
@@ -358,10 +313,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>267</v>
+        <v>955</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D13"/>
     </row>
@@ -370,10 +325,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>279</v>
+        <v>998</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D14"/>
     </row>
@@ -382,10 +337,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>1140</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.37685951590538025</v>
       </c>
       <c r="D15"/>
     </row>
@@ -394,10 +349,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>408</v>
+        <v>1224</v>
       </c>
       <c r="C16">
-        <v>0.13527850806713104</v>
+        <v>0.40462809801101685</v>
       </c>
       <c r="D16"/>
     </row>
@@ -406,10 +361,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>587</v>
+        <v>1289</v>
       </c>
       <c r="C17">
-        <v>0.19462864100933075</v>
+        <v>0.42611569166183472</v>
       </c>
       <c r="D17"/>
     </row>
@@ -418,10 +373,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>745</v>
+        <v>1306</v>
       </c>
       <c r="C18">
-        <v>0.24701590836048126</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D18"/>
     </row>
@@ -430,10 +385,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>985</v>
+        <v>1343</v>
       </c>
       <c r="C19">
-        <v>0.32659152150154114</v>
+        <v>0.44396695494651794</v>
       </c>
       <c r="D19"/>
     </row>
@@ -442,10 +397,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1124</v>
+        <v>1414</v>
       </c>
       <c r="C20">
-        <v>0.37267905473709106</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D20"/>
     </row>
@@ -454,10 +409,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1133</v>
+        <v>1497</v>
       </c>
       <c r="C21">
-        <v>0.37566313147544861</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D21"/>
     </row>
@@ -466,10 +421,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1166</v>
+        <v>1561</v>
       </c>
       <c r="C22">
-        <v>0.38660478591918945</v>
+        <v>0.51603305339813232</v>
       </c>
       <c r="D22"/>
     </row>
@@ -478,10 +433,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1196</v>
+        <v>1767</v>
       </c>
       <c r="C23">
-        <v>0.39655172824859619</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D23"/>
     </row>
@@ -490,10 +445,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1423</v>
+        <v>2008</v>
       </c>
       <c r="C24">
-        <v>0.47181698679924011</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D24"/>
     </row>
@@ -502,10 +457,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1442</v>
+        <v>2023</v>
       </c>
       <c r="C25">
-        <v>0.4781167209148407</v>
+        <v>0.66876035928726196</v>
       </c>
       <c r="D25"/>
     </row>
@@ -514,132 +469,12 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1454</v>
+        <v>2785</v>
       </c>
       <c r="C26">
-        <v>0.48209547996520996</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1464</v>
-      </c>
-      <c r="C27">
-        <v>0.485411137342453</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1472</v>
-      </c>
-      <c r="C28">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1660</v>
-      </c>
-      <c r="C29">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1755</v>
-      </c>
-      <c r="C30">
-        <v>0.58189654350280762</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1798</v>
-      </c>
-      <c r="C31">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1817</v>
-      </c>
-      <c r="C32">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1859</v>
-      </c>
-      <c r="C33">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2119</v>
-      </c>
-      <c r="C34">
-        <v>0.70258623361587524</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2217</v>
-      </c>
-      <c r="C35">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2714</v>
-      </c>
-      <c r="C36">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D36"/>
     </row>
   </sheetData>
 </worksheet>
@@ -647,55 +482,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
